--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.09582266666666</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H2">
-        <v>132.287468</v>
+        <v>147.223858</v>
       </c>
       <c r="I2">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J2">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N2">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O2">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P2">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q2">
-        <v>207.2286125941511</v>
+        <v>622.2267825855486</v>
       </c>
       <c r="R2">
-        <v>1865.05751334736</v>
+        <v>5600.041043269936</v>
       </c>
       <c r="S2">
-        <v>0.1862029934126159</v>
+        <v>0.2055743826954186</v>
       </c>
       <c r="T2">
-        <v>0.1862029934126158</v>
+        <v>0.2055743826954186</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.09582266666666</v>
+        <v>49.07461933333334</v>
       </c>
       <c r="H3">
-        <v>132.287468</v>
+        <v>147.223858</v>
       </c>
       <c r="I3">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="J3">
-        <v>0.1927468402671175</v>
+        <v>0.2082521693470354</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N3">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q3">
-        <v>7.282763181373777</v>
+        <v>8.105049621648224</v>
       </c>
       <c r="R3">
-        <v>65.54486863236399</v>
+        <v>72.94544659483401</v>
       </c>
       <c r="S3">
-        <v>0.006543846854501677</v>
+        <v>0.00267778665161683</v>
       </c>
       <c r="T3">
-        <v>0.006543846854501677</v>
+        <v>0.002677786651616829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>333.944756</v>
       </c>
       <c r="I4">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J4">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N4">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O4">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P4">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q4">
-        <v>523.1252023734578</v>
+        <v>1411.383819918617</v>
       </c>
       <c r="R4">
-        <v>4708.12682136112</v>
+        <v>12702.45437926755</v>
       </c>
       <c r="S4">
-        <v>0.4700484039927774</v>
+        <v>0.4663000141530876</v>
       </c>
       <c r="T4">
-        <v>0.4700484039927773</v>
+        <v>0.4663000141530876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>333.944756</v>
       </c>
       <c r="I5">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466805</v>
       </c>
       <c r="J5">
-        <v>0.4865676055026886</v>
+        <v>0.4723739808466804</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,16 +741,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N5">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q5">
         <v>18.38451223217644</v>
@@ -759,10 +759,10 @@
         <v>165.460610089588</v>
       </c>
       <c r="S5">
-        <v>0.0165192015099112</v>
+        <v>0.006073966693592822</v>
       </c>
       <c r="T5">
-        <v>0.0165192015099112</v>
+        <v>0.006073966693592821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.02061066666666</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H6">
-        <v>99.061832</v>
+        <v>121.040131</v>
       </c>
       <c r="I6">
-        <v>0.1443360841185049</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J6">
-        <v>0.144336084118505</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N6">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O6">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P6">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q6">
-        <v>155.1805799654044</v>
+        <v>511.5639020671725</v>
       </c>
       <c r="R6">
-        <v>1396.62521968864</v>
+        <v>4604.075118604553</v>
       </c>
       <c r="S6">
-        <v>0.1394358054486133</v>
+        <v>0.1690130292041226</v>
       </c>
       <c r="T6">
-        <v>0.1394358054486133</v>
+        <v>0.1690130292041226</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.02061066666666</v>
+        <v>40.34671033333333</v>
       </c>
       <c r="H7">
-        <v>99.061832</v>
+        <v>121.040131</v>
       </c>
       <c r="I7">
-        <v>0.1443360841185049</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="J7">
-        <v>0.144336084118505</v>
+        <v>0.1712145721571795</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N7">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q7">
-        <v>5.453607009615109</v>
+        <v>6.663568536329223</v>
       </c>
       <c r="R7">
-        <v>49.08246308653599</v>
+        <v>59.972116826963</v>
       </c>
       <c r="S7">
-        <v>0.004900278669891645</v>
+        <v>0.002201542953056918</v>
       </c>
       <c r="T7">
-        <v>0.004900278669891646</v>
+        <v>0.002201542953056918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.34450033333333</v>
+        <v>34.91373066666667</v>
       </c>
       <c r="H8">
-        <v>121.033501</v>
+        <v>104.741192</v>
       </c>
       <c r="I8">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="J8">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N8">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O8">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P8">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q8">
-        <v>189.5992482798356</v>
+        <v>442.6780807655184</v>
       </c>
       <c r="R8">
-        <v>1706.39323451852</v>
+        <v>3984.102726889665</v>
       </c>
       <c r="S8">
-        <v>0.1703623217688983</v>
+        <v>0.1462541885580957</v>
       </c>
       <c r="T8">
-        <v>0.1703623217688983</v>
+        <v>0.1462541885580957</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.34450033333333</v>
+        <v>34.91373066666667</v>
       </c>
       <c r="H9">
-        <v>121.033501</v>
+        <v>104.741192</v>
       </c>
       <c r="I9">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="J9">
-        <v>0.1763494701116889</v>
+        <v>0.1481592776491046</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N9">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q9">
-        <v>6.663203537885887</v>
+        <v>5.766270291535112</v>
       </c>
       <c r="R9">
-        <v>59.96883184097299</v>
+        <v>51.896432623816</v>
       </c>
       <c r="S9">
-        <v>0.005987148342790683</v>
+        <v>0.001905089091008847</v>
       </c>
       <c r="T9">
-        <v>0.005987148342790683</v>
+        <v>0.001905089091008846</v>
       </c>
     </row>
   </sheetData>
